--- a/docs/monitorar_andamento_de_convenio.xlsx
+++ b/docs/monitorar_andamento_de_convenio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Convênio</t>
   </si>
@@ -40,7 +40,7 @@
     <t>RESULTADO</t>
   </si>
   <si>
-    <t>Resposta enviada</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,12 @@
       <sz val="8"/>
       <color rgb="FF363636"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,6 +156,9 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -159,8 +168,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,7 +180,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,13 +491,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -502,10 +511,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -514,5591 +523,5589 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>865202</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9">
         <f>D2-C2</f>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="9">
         <f>IF(G2=F2,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>865244</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9">
         <f>D3-C3</f>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <f>IF(G3=F3,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>865299</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9">
         <f>D4-C4</f>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <f>IF(G4=F4,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>865310</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9">
         <f>D5-C5</f>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <f>IF(G5=F5,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>865312</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9">
         <f>D6-C6</f>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <f>IF(G6=F6,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>864119</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9">
         <f>D7-C7</f>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <f>IF(G7=F7,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>865287</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9">
         <f>D8-C8</f>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <f>IF(G8=F8,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>865313</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9">
         <f>D9-C9</f>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <f>IF(G9=F9,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>876183</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9">
         <f>D10-C10</f>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <f>IF(G10=F10,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>865311</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9">
         <f>D11-C11</f>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <f>IF(G11=F11,0)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>865335</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9">
         <f>D12-C12</f>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>864218</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9">
         <f>D13-C13</f>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>865135</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9">
         <f>D14-C14</f>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>884163</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9">
         <f>D15-C15</f>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>882874</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9">
         <f>D16-C16</f>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>892973</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9">
         <f>D17-C17</f>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>894221</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9">
         <f>D18-C18</f>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15.75">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>894228</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9">
         <f>D19-C19</f>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15.75">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>884165</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9">
         <f>D20-C20</f>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>894316</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9">
         <f>D21-C21</f>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>884177</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="9">
         <f>D22-C22</f>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>884180</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9">
         <f>D23-C23</f>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>884143</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9">
         <f>D24-C24</f>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>884158</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9">
         <f>D25-C25</f>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>897882</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9">
         <f>D26-C26</f>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>898534</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9">
         <f>D27-C27</f>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>903650</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9">
         <f>D28-C28</f>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>898241</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9">
         <f>D29-C29</f>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>897622</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="9">
         <f>D30-C30</f>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>903630</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9">
         <f>D31-C31</f>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>903786</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9">
         <f>D32-C32</f>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>898651</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="9">
         <f>D33-C33</f>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <v>899428</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="9">
         <f>D34-C34</f>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <v>903663</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9">
         <f>D35-C35</f>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <v>897690</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="9">
         <f>D36-C36</f>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <v>898530</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="9">
         <f>D37-C37</f>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>898702</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="9">
         <f>D38-C38</f>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>904218</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="9">
         <f>D39-C39</f>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>905208</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="9">
         <f>D40-C40</f>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>905209</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="9">
         <f>D41-C41</f>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>905573</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9">
         <f>D42-C42</f>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <v>905575</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="9">
         <f>D43-C43</f>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <v>905582</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="9">
         <f>D44-C44</f>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <v>897581</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="9">
         <f>D45-C45</f>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <v>897539</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="9">
         <f>D46-C46</f>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <v>902400</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="9">
         <f>D47-C47</f>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <v>897550</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="8">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="9">
         <f>D48-C48</f>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <v>916781</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="8">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="9">
         <f>D49-C49</f>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <v>916752</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="8">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="9">
         <f>D50-C50</f>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <v>909679</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="8">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="9">
         <f>D51-C51</f>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <v>909713</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="8">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="9">
         <f>D52-C52</f>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <v>909738</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="8">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="9">
         <f>D53-C53</f>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <v>909925</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="8">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="9">
         <f>D54-C54</f>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <v>916031</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="8">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="9">
         <f>D55-C55</f>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <v>916098</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="8">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9">
         <f>D56-C56</f>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="9">
+      <c r="A57" s="10">
         <v>916574</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="8">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="9">
         <f>D57-C57</f>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <v>917120</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="8">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="9">
         <f>D58-C58</f>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="9">
+      <c r="A59" s="10">
         <v>917610</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="8">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="9">
         <f>D59-C59</f>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <v>918038</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="8">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="9">
         <f>D60-C60</f>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="9">
+      <c r="A61" s="10">
         <v>918182</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="8">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="9">
         <f>D61-C61</f>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <v>918557</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="8">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="9">
         <f>D62-C62</f>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <v>920965</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="8">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="9">
         <f>D63-C63</f>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="9">
+      <c r="A64" s="10">
         <v>921112</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="8">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="9">
         <f>D64-C64</f>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="9">
+      <c r="A65" s="10">
         <v>921376</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="8">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="9">
         <f>D65-C65</f>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <v>921543</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="8">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="9">
         <f>D66-C66</f>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="10"/>
+      <c r="H66" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="9">
+      <c r="A67" s="10">
         <v>921965</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="8">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9">
         <f>D67-C67</f>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <v>922047</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="8">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="9">
         <f>D68-C68</f>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="10"/>
+      <c r="H68" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <v>922115</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="8">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="9">
         <f>D69-C69</f>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="10"/>
+      <c r="H69" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="9">
+      <c r="A70" s="10">
         <v>922862</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="8">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="9">
         <f>D70-C70</f>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="10"/>
+      <c r="H70" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="9">
+      <c r="A71" s="10">
         <v>923583</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="8">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="9">
         <f>D71-C71</f>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="10"/>
+      <c r="H71" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="9">
+      <c r="A72" s="10">
         <v>923821</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="8">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="9">
         <f>D72-C72</f>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <v>923822</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="8">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="9">
         <f>D73-C73</f>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="9">
+      <c r="A74" s="10">
         <v>923833</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="8">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="9">
         <f>D74-C74</f>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <v>923835</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="8">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="9">
         <f>D75-C75</f>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="9">
+      <c r="A76" s="10">
         <v>923871</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="8">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="9">
         <f>D76-C76</f>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="9">
+      <c r="A77" s="10">
         <v>923898</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="8">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="9">
         <f>D77-C77</f>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <v>923902</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="8">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="9">
         <f>D78-C78</f>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="10"/>
+      <c r="H78" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="9">
+      <c r="A79" s="10">
         <v>923925</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="8">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="9">
         <f>D79-C79</f>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="10"/>
+      <c r="H79" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="9">
+      <c r="A80" s="10">
         <v>924164</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="8">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="9">
         <f>D80-C80</f>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="10"/>
+      <c r="H80" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="9">
+      <c r="A81" s="10">
         <v>924167</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="8">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="9">
         <f>D81-C81</f>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="9">
+      <c r="A82" s="10">
         <v>924184</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="8">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="9">
         <f>D82-C82</f>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="10"/>
+      <c r="H82" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="9">
+      <c r="A83" s="10">
         <v>924251</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="8">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="9">
         <f>D83-C83</f>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="9">
+      <c r="A84" s="10">
         <v>924253</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="8">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="9">
         <f>D84-C84</f>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="9">
+      <c r="A85" s="10">
         <v>910559</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="8">
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="9">
         <f>D85-C85</f>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="9">
+      <c r="A86" s="10">
         <v>909917</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="8">
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="9">
         <f>D86-C86</f>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="9">
+      <c r="A87" s="10">
         <v>916405</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="8">
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="9">
         <f>D87-C87</f>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="10"/>
+      <c r="H87" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="9">
+      <c r="A88" s="10">
         <v>916408</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="8">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="9">
         <f>D88-C88</f>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="9">
+      <c r="A89" s="10">
         <v>916754</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="8">
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="9">
         <f>D89-C89</f>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="10"/>
+      <c r="H89" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="9">
+      <c r="A90" s="10">
         <v>909999</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="8">
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="9">
         <f>D90-C90</f>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="9">
+      <c r="A91" s="10">
         <v>916346</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="8">
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="9">
         <f>D91-C91</f>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="10"/>
+      <c r="H91" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="9">
+      <c r="A92" s="10">
         <v>917121</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="8">
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="9">
         <f>D92-C92</f>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="10"/>
+      <c r="H92" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="9">
+      <c r="A93" s="10">
         <v>917889</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="8">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="9">
         <f>D93-C93</f>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="10"/>
+      <c r="H93" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="9">
+      <c r="A94" s="10">
         <v>924305</v>
       </c>
       <c r="B94" s="6"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="8">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="9">
         <f>D94-C94</f>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="10"/>
+      <c r="H94" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="9">
+      <c r="A95" s="10">
         <v>912302</v>
       </c>
       <c r="B95" s="6"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="8">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="9">
         <f>D95-C95</f>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="10"/>
+      <c r="H95" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="9">
+      <c r="A96" s="10">
         <v>909859</v>
       </c>
       <c r="B96" s="6"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="8">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="9">
         <f>D96-C96</f>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="9">
+      <c r="A97" s="10">
         <v>917577</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="8">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="9">
         <f>D97-C97</f>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="9">
+      <c r="A98" s="10">
         <v>922061</v>
       </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="8">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="9">
         <f>D98-C98</f>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="9">
+      <c r="A99" s="10">
         <v>921556</v>
       </c>
       <c r="B99" s="6"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="8">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="9">
         <f>D99-C99</f>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="10"/>
+      <c r="H99" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="9">
+      <c r="A100" s="10">
         <v>910557</v>
       </c>
       <c r="B100" s="6"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="8">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="9">
         <f>D100-C100</f>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="10"/>
+      <c r="H100" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="9">
+      <c r="A101" s="10">
         <v>914150</v>
       </c>
       <c r="B101" s="6"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="8">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="9">
         <f>D101-C101</f>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="10"/>
+      <c r="H101" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="9">
+      <c r="A102" s="10">
         <v>910628</v>
       </c>
       <c r="B102" s="6"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="8">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="9">
         <f>D102-C102</f>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="10"/>
+      <c r="H102" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="9">
+      <c r="A103" s="10">
         <v>916403</v>
       </c>
       <c r="B103" s="6"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="8">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="9">
         <f>D103-C103</f>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="10"/>
+      <c r="H103" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="9">
+      <c r="A104" s="10">
         <v>924420</v>
       </c>
       <c r="B104" s="6"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="8">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="9">
         <f>D104-C104</f>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="9">
+      <c r="A105" s="10">
         <v>916423</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="8">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="9">
         <f>D105-C105</f>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="9">
+      <c r="A106" s="10">
         <v>924163</v>
       </c>
       <c r="B106" s="6"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="8">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="9">
         <f>D106-C106</f>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="10"/>
+      <c r="H106" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="9">
+      <c r="A107" s="10">
         <v>928103</v>
       </c>
       <c r="B107" s="6"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="8">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="9">
         <f>D107-C107</f>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="10"/>
+      <c r="H107" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="9">
+      <c r="A108" s="10">
         <v>928171</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="8">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="9">
         <f>D108-C108</f>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="9">
+      <c r="A109" s="10">
         <v>928374</v>
       </c>
       <c r="B109" s="6"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="8">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="9">
         <f>D109-C109</f>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="9">
+      <c r="A110" s="10">
         <v>928676</v>
       </c>
       <c r="B110" s="6"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="8">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="9">
         <f>D110-C110</f>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="9">
+      <c r="A111" s="10">
         <v>928995</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="8">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="9">
         <f>D111-C111</f>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="10"/>
+      <c r="H111" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="9">
+      <c r="A112" s="10">
         <v>928999</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="8">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="9">
         <f>D112-C112</f>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="9">
+      <c r="A113" s="10">
         <v>929474</v>
       </c>
       <c r="B113" s="6"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="8">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="9">
         <f>D113-C113</f>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="10"/>
+      <c r="H113" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="9">
+      <c r="A114" s="10">
         <v>929476</v>
       </c>
       <c r="B114" s="6"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="8">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="9">
         <f>D114-C114</f>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="10"/>
+      <c r="H114" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="9">
+      <c r="A115" s="10">
         <v>929478</v>
       </c>
       <c r="B115" s="6"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="8">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="9">
         <f>D115-C115</f>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="10"/>
+      <c r="H115" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="9">
+      <c r="A116" s="10">
         <v>929569</v>
       </c>
       <c r="B116" s="6"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="8">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="9">
         <f>D116-C116</f>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="9">
+      <c r="A117" s="10">
         <v>929570</v>
       </c>
       <c r="B117" s="6"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="8">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="9">
         <f>D117-C117</f>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="10"/>
+      <c r="H117" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="9">
+      <c r="A118" s="10">
         <v>929574</v>
       </c>
       <c r="B118" s="6"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="8">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="9">
         <f>D118-C118</f>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="10"/>
+      <c r="H118" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="9">
+      <c r="A119" s="10">
         <v>929925</v>
       </c>
       <c r="B119" s="6"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="8">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="9">
         <f>D119-C119</f>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="10"/>
+      <c r="H119" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="9">
+      <c r="A120" s="10">
         <v>929929</v>
       </c>
       <c r="B120" s="6"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="8">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="9">
         <f>D120-C120</f>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="10"/>
+      <c r="H120" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="9">
+      <c r="A121" s="10">
         <v>929935</v>
       </c>
       <c r="B121" s="6"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="8">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="9">
         <f>D121-C121</f>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="9">
+      <c r="A122" s="10">
         <v>929943</v>
       </c>
       <c r="B122" s="6"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="8">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="9">
         <f>D122-C122</f>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="10"/>
+      <c r="H122" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="9">
+      <c r="A123" s="10">
         <v>929955</v>
       </c>
       <c r="B123" s="6"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="8">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="9">
         <f>D123-C123</f>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="9">
+      <c r="A124" s="10">
         <v>929970</v>
       </c>
       <c r="B124" s="6"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="8">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="9">
         <f>D124-C124</f>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="10"/>
+      <c r="H124" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="9">
+      <c r="A125" s="10">
         <v>929972</v>
       </c>
       <c r="B125" s="6"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="8">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="9">
         <f>D125-C125</f>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="10"/>
+      <c r="H125" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="9">
+      <c r="A126" s="10">
         <v>930024</v>
       </c>
       <c r="B126" s="6"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="8">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="9">
         <f>D126-C126</f>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="10"/>
+      <c r="H126" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="9">
+      <c r="A127" s="10">
         <v>930025</v>
       </c>
       <c r="B127" s="6"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="8">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="9">
         <f>D127-C127</f>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="10"/>
+      <c r="H127" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="9">
+      <c r="A128" s="10">
         <v>930064</v>
       </c>
       <c r="B128" s="6"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="8">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="9">
         <f>D128-C128</f>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="10"/>
+      <c r="H128" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="9">
+      <c r="A129" s="10">
         <v>930065</v>
       </c>
       <c r="B129" s="6"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="8">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="9">
         <f>D129-C129</f>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="10"/>
+      <c r="H129" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="9">
+      <c r="A130" s="10">
         <v>930217</v>
       </c>
       <c r="B130" s="6"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="8">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="9">
         <f>D130-C130</f>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="10"/>
+      <c r="H130" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="9">
+      <c r="A131" s="10">
         <v>930226</v>
       </c>
       <c r="B131" s="6"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="8">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="9">
         <f>D131-C131</f>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="9">
+      <c r="A132" s="10">
         <v>931874</v>
       </c>
       <c r="B132" s="6"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="8">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="9">
         <f>D132-C132</f>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="10"/>
+      <c r="H132" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="9">
+      <c r="A133" s="10">
         <v>932367</v>
       </c>
       <c r="B133" s="6"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="8">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="9">
         <f>D133-C133</f>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="10"/>
+      <c r="H133" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="9">
+      <c r="A134" s="10">
         <v>932370</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="8">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="9">
         <f>D134-C134</f>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="10"/>
+      <c r="H134" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="9">
+      <c r="A135" s="10">
         <v>932372</v>
       </c>
       <c r="B135" s="6"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="8">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="9">
         <f>D135-C135</f>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="10"/>
+      <c r="H135" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="9">
+      <c r="A136" s="10">
         <v>932373</v>
       </c>
       <c r="B136" s="6"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="8">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="9">
         <f>D136-C136</f>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="10"/>
+      <c r="H136" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="9">
+      <c r="A137" s="10">
         <v>932375</v>
       </c>
       <c r="B137" s="6"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="8">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="9">
         <f>D137-C137</f>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="10"/>
+      <c r="H137" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="9">
+      <c r="A138" s="10">
         <v>932376</v>
       </c>
       <c r="B138" s="6"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="8">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="9">
         <f>D138-C138</f>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="10"/>
+      <c r="H138" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="9">
+      <c r="A139" s="10">
         <v>932377</v>
       </c>
       <c r="B139" s="6"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="8">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="9">
         <f>D139-C139</f>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="10"/>
+      <c r="H139" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="9">
+      <c r="A140" s="10">
         <v>932378</v>
       </c>
       <c r="B140" s="6"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="8">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="9">
         <f>D140-C140</f>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="10"/>
+      <c r="H140" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="9">
+      <c r="A141" s="10">
         <v>932379</v>
       </c>
       <c r="B141" s="6"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="8">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="9">
         <f>D141-C141</f>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="10"/>
+      <c r="H141" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="9">
+      <c r="A142" s="10">
         <v>932382</v>
       </c>
       <c r="B142" s="6"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="8">
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="9">
         <f>D142-C142</f>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="10"/>
+      <c r="H142" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="9">
+      <c r="A143" s="10">
         <v>932385</v>
       </c>
       <c r="B143" s="6"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="8">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="9">
         <f>D143-C143</f>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="10"/>
+      <c r="H143" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="9">
+      <c r="A144" s="10">
         <v>932386</v>
       </c>
       <c r="B144" s="6"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="8">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="9">
         <f>D144-C144</f>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="10"/>
+      <c r="H144" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="9">
+      <c r="A145" s="10">
         <v>932391</v>
       </c>
       <c r="B145" s="6"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="8">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="9">
         <f>D145-C145</f>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="10"/>
+      <c r="H145" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="9">
+      <c r="A146" s="10">
         <v>932396</v>
       </c>
       <c r="B146" s="6"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="8">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="9">
         <f>D146-C146</f>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="10"/>
+      <c r="H146" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="9">
+      <c r="A147" s="10">
         <v>932397</v>
       </c>
       <c r="B147" s="6"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="8">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="9">
         <f>D147-C147</f>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="10"/>
+      <c r="H147" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="9">
+      <c r="A148" s="10">
         <v>932398</v>
       </c>
       <c r="B148" s="6"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="8">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="9">
         <f>D148-C148</f>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="10"/>
+      <c r="H148" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="9">
+      <c r="A149" s="10">
         <v>933759</v>
       </c>
       <c r="B149" s="6"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="8">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="9">
         <f>D149-C149</f>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="10"/>
+      <c r="H149" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="9">
+      <c r="A150" s="10">
         <v>933761</v>
       </c>
       <c r="B150" s="6"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="8">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="9">
         <f>D150-C150</f>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="10"/>
+      <c r="H150" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="9">
+      <c r="A151" s="10">
         <v>933762</v>
       </c>
       <c r="B151" s="6"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="8">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="9">
         <f>D151-C151</f>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="10"/>
+      <c r="H151" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="9">
+      <c r="A152" s="10">
         <v>933820</v>
       </c>
       <c r="B152" s="6"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="8">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="9">
         <f>D152-C152</f>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="10"/>
+      <c r="H152" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="9">
+      <c r="A153" s="10">
         <v>934851</v>
       </c>
       <c r="B153" s="6"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="8">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="9">
         <f>D153-C153</f>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="10"/>
+      <c r="H153" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="9">
+      <c r="A154" s="10">
         <v>934854</v>
       </c>
       <c r="B154" s="6"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="8">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="9">
         <f>D154-C154</f>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="10"/>
+      <c r="H154" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="9">
+      <c r="A155" s="10">
         <v>936224</v>
       </c>
       <c r="B155" s="6"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="8">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="9">
         <f>D155-C155</f>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="10"/>
+      <c r="H155" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="9">
+      <c r="A156" s="10">
         <v>937050</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="8">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="9">
         <f>D156-C156</f>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="10"/>
+      <c r="H156" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="9">
+      <c r="A157" s="10">
         <v>937060</v>
       </c>
       <c r="B157" s="6"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="8">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="9">
         <f>D157-C157</f>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="9">
+      <c r="A158" s="10">
         <v>937070</v>
       </c>
       <c r="B158" s="6"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="8">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="9">
         <f>D158-C158</f>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="9">
+      <c r="A159" s="10">
         <v>937071</v>
       </c>
       <c r="B159" s="6"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="8">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="9">
         <f>D159-C159</f>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="9">
+      <c r="A160" s="10">
         <v>937072</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="8">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="9">
         <f>D160-C160</f>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="10"/>
+      <c r="H160" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="9">
+      <c r="A161" s="10">
         <v>937075</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="8">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="9">
         <f>D161-C161</f>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="10"/>
+      <c r="H161" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="9">
+      <c r="A162" s="10">
         <v>937089</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="8">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="9">
         <f>D162-C162</f>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="10"/>
+      <c r="H162" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="9">
+      <c r="A163" s="10">
         <v>937092</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="8">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="9">
         <f>D163-C163</f>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="9">
+      <c r="A164" s="10">
         <v>937093</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="8">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="9">
         <f>D164-C164</f>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="9">
+      <c r="A165" s="10">
         <v>937112</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="8">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="9">
         <f>D165-C165</f>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="10"/>
+      <c r="H165" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="9">
+      <c r="A166" s="10">
         <v>937170</v>
       </c>
       <c r="B166" s="6"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="8">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="9">
         <f>D166-C166</f>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="10"/>
+      <c r="H166" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="9">
+      <c r="A167" s="10">
         <v>937188</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="8">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="9">
         <f>D167-C167</f>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="10"/>
+      <c r="H167" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="9">
+      <c r="A168" s="10">
         <v>937217</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="8">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="9">
         <f>D168-C168</f>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="10"/>
+      <c r="H168" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="9">
+      <c r="A169" s="10">
         <v>937225</v>
       </c>
       <c r="B169" s="6"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="8">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="9">
         <f>D169-C169</f>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="10"/>
+      <c r="H169" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="9">
+      <c r="A170" s="10">
         <v>937258</v>
       </c>
       <c r="B170" s="6"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="8">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="9">
         <f>D170-C170</f>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="10"/>
+      <c r="H170" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="9">
+      <c r="A171" s="10">
         <v>937260</v>
       </c>
       <c r="B171" s="6"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="8">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="9">
         <f>D171-C171</f>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="10"/>
+      <c r="H171" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="9">
+      <c r="A172" s="10">
         <v>937262</v>
       </c>
       <c r="B172" s="6"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="8">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="9">
         <f>D172-C172</f>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="10"/>
+      <c r="H172" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="9">
+      <c r="A173" s="10">
         <v>937337</v>
       </c>
       <c r="B173" s="6"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="8">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="9">
         <f>D173-C173</f>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="9">
+      <c r="A174" s="10">
         <v>937338</v>
       </c>
       <c r="B174" s="6"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="8">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="9">
         <f>D174-C174</f>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="10"/>
+      <c r="H174" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="9">
+      <c r="A175" s="10">
         <v>937342</v>
       </c>
       <c r="B175" s="6"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="8">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="9">
         <f>D175-C175</f>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="10"/>
+      <c r="H175" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="9">
+      <c r="A176" s="10">
         <v>937346</v>
       </c>
       <c r="B176" s="6"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="8">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="9">
         <f>D176-C176</f>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="10"/>
+      <c r="H176" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="9">
+      <c r="A177" s="10">
         <v>937375</v>
       </c>
       <c r="B177" s="6"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="8">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="9">
         <f>D177-C177</f>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="10"/>
+      <c r="H177" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="9">
+      <c r="A178" s="10">
         <v>937380</v>
       </c>
       <c r="B178" s="6"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="8">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="9">
         <f>D178-C178</f>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="10"/>
+      <c r="H178" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="9">
+      <c r="A179" s="10">
         <v>937410</v>
       </c>
       <c r="B179" s="6"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="8">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="9">
         <f>D179-C179</f>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="10"/>
+      <c r="H179" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="9">
+      <c r="A180" s="10">
         <v>937413</v>
       </c>
       <c r="B180" s="6"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="8">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="9">
         <f>D180-C180</f>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="10"/>
+      <c r="H180" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="9">
+      <c r="A181" s="10">
         <v>937418</v>
       </c>
       <c r="B181" s="6"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="8">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="9">
         <f>D181-C181</f>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="10"/>
+      <c r="H181" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="9">
+      <c r="A182" s="10">
         <v>937422</v>
       </c>
       <c r="B182" s="6"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="8">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="9">
         <f>D182-C182</f>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="10"/>
+      <c r="H182" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="9">
+      <c r="A183" s="10">
         <v>937424</v>
       </c>
       <c r="B183" s="6"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="8">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="9">
         <f>D183-C183</f>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="10"/>
+      <c r="H183" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="9">
+      <c r="A184" s="10">
         <v>937435</v>
       </c>
       <c r="B184" s="6"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="8">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="9">
         <f>D184-C184</f>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="10"/>
+      <c r="H184" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="9">
+      <c r="A185" s="10">
         <v>937440</v>
       </c>
       <c r="B185" s="6"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="8">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="9">
         <f>D185-C185</f>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="10"/>
+      <c r="H185" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="9">
+      <c r="A186" s="10">
         <v>937477</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="8">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="9">
         <f>D186-C186</f>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="10"/>
+      <c r="H186" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="9">
+      <c r="A187" s="10">
         <v>937513</v>
       </c>
       <c r="B187" s="6"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="8">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="9">
         <f>D187-C187</f>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="10"/>
+      <c r="H187" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="9">
+      <c r="A188" s="10">
         <v>937726</v>
       </c>
       <c r="B188" s="6"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="8">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="9">
         <f>D188-C188</f>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="10"/>
+      <c r="H188" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="9">
+      <c r="A189" s="10">
         <v>937824</v>
       </c>
       <c r="B189" s="6"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="8">
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="9">
         <f>D189-C189</f>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="10"/>
+      <c r="H189" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="9">
+      <c r="A190" s="10">
         <v>938098</v>
       </c>
       <c r="B190" s="6"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="8">
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="9">
         <f>D190-C190</f>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="10"/>
+      <c r="H190" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="9">
+      <c r="A191" s="10">
         <v>938168</v>
       </c>
       <c r="B191" s="6"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="8">
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="9">
         <f>D191-C191</f>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="10"/>
+      <c r="H191" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="9">
+      <c r="A192" s="10">
         <v>938175</v>
       </c>
       <c r="B192" s="6"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="8">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="9">
         <f>D192-C192</f>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="10"/>
+      <c r="H192" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="9">
+      <c r="A193" s="10">
         <v>938180</v>
       </c>
       <c r="B193" s="6"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="8">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="9">
         <f>D193-C193</f>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="10"/>
+      <c r="H193" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="9">
+      <c r="A194" s="10">
         <v>938195</v>
       </c>
       <c r="B194" s="6"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="8">
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="9">
         <f>D194-C194</f>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="10"/>
+      <c r="H194" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="9">
+      <c r="A195" s="10">
         <v>938211</v>
       </c>
       <c r="B195" s="6"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="8">
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="9">
         <f>D195-C195</f>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="10"/>
+      <c r="H195" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="9">
+      <c r="A196" s="10">
         <v>938235</v>
       </c>
       <c r="B196" s="6"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="8">
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="9">
         <f>D196-C196</f>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="10"/>
+      <c r="H196" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="9">
+      <c r="A197" s="10">
         <v>938245</v>
       </c>
       <c r="B197" s="6"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="8">
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="9">
         <f>D197-C197</f>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="10"/>
+      <c r="H197" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="9">
+      <c r="A198" s="10">
         <v>938255</v>
       </c>
       <c r="B198" s="6"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="8">
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="9">
         <f>D198-C198</f>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="10"/>
+      <c r="H198" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="9">
+      <c r="A199" s="10">
         <v>938279</v>
       </c>
       <c r="B199" s="6"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="8">
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="9">
         <f>D199-C199</f>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="10"/>
+      <c r="H199" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="9">
+      <c r="A200" s="10">
         <v>938317</v>
       </c>
       <c r="B200" s="6"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="8">
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="9">
         <f>D200-C200</f>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="10"/>
+      <c r="H200" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="9">
+      <c r="A201" s="10">
         <v>938321</v>
       </c>
       <c r="B201" s="6"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="8">
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="9">
         <f>D201-C201</f>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="10"/>
+      <c r="H201" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="9">
+      <c r="A202" s="10">
         <v>938334</v>
       </c>
       <c r="B202" s="6"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="8">
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="9">
         <f>D202-C202</f>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
-      <c r="H202" s="10"/>
+      <c r="H202" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="9">
+      <c r="A203" s="10">
         <v>938448</v>
       </c>
       <c r="B203" s="6"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="8">
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="9">
         <f>D203-C203</f>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
-      <c r="H203" s="10"/>
+      <c r="H203" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="9">
+      <c r="A204" s="10">
         <v>938559</v>
       </c>
       <c r="B204" s="6"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="8">
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="9">
         <f>D204-C204</f>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="10"/>
+      <c r="H204" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="9">
+      <c r="A205" s="10">
         <v>938566</v>
       </c>
       <c r="B205" s="6"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="8">
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="9">
         <f>D205-C205</f>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
-      <c r="H205" s="10"/>
+      <c r="H205" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="9">
+      <c r="A206" s="10">
         <v>938568</v>
       </c>
       <c r="B206" s="6"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="8">
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="9">
         <f>D206-C206</f>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="10"/>
+      <c r="H206" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="9">
+      <c r="A207" s="10">
         <v>938576</v>
       </c>
       <c r="B207" s="6"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="8">
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="9">
         <f>D207-C207</f>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
-      <c r="H207" s="10"/>
+      <c r="H207" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="9">
+      <c r="A208" s="10">
         <v>938624</v>
       </c>
       <c r="B208" s="6"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="8">
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="9">
         <f>D208-C208</f>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
-      <c r="H208" s="10"/>
+      <c r="H208" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="9">
+      <c r="A209" s="10">
         <v>938627</v>
       </c>
       <c r="B209" s="6"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="8">
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="9">
         <f>D209-C209</f>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="10"/>
+      <c r="H209" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="9">
+      <c r="A210" s="10">
         <v>938636</v>
       </c>
       <c r="B210" s="6"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="8">
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="9">
         <f>D210-C210</f>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="10"/>
+      <c r="H210" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="9">
+      <c r="A211" s="10">
         <v>938638</v>
       </c>
       <c r="B211" s="6"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="8">
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="9">
         <f>D211-C211</f>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="10"/>
+      <c r="H211" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="9">
+      <c r="A212" s="10">
         <v>938654</v>
       </c>
       <c r="B212" s="6"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="8">
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="9">
         <f>D212-C212</f>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="10"/>
+      <c r="H212" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="9">
+      <c r="A213" s="10">
         <v>938658</v>
       </c>
       <c r="B213" s="6"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="8">
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="9">
         <f>D213-C213</f>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="10"/>
+      <c r="H213" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="9">
+      <c r="A214" s="10">
         <v>938737</v>
       </c>
       <c r="B214" s="6"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="8">
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="9">
         <f>D214-C214</f>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="10"/>
+      <c r="H214" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="9">
+      <c r="A215" s="10">
         <v>938744</v>
       </c>
       <c r="B215" s="6"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="8">
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="9">
         <f>D215-C215</f>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="10"/>
+      <c r="H215" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="9">
+      <c r="A216" s="10">
         <v>938763</v>
       </c>
       <c r="B216" s="6"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="8">
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="9">
         <f>D216-C216</f>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
-      <c r="H216" s="10"/>
+      <c r="H216" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="9">
+      <c r="A217" s="10">
         <v>938904</v>
       </c>
       <c r="B217" s="6"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="8">
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="9">
         <f>D217-C217</f>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
-      <c r="H217" s="10"/>
+      <c r="H217" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="9">
+      <c r="A218" s="10">
         <v>939050</v>
       </c>
       <c r="B218" s="6"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="8">
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="9">
         <f>D218-C218</f>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
-      <c r="H218" s="10"/>
+      <c r="H218" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="9">
+      <c r="A219" s="10">
         <v>929571</v>
       </c>
       <c r="B219" s="6"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="8">
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="9">
         <f>D219-C219</f>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="10"/>
+      <c r="H219" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="9">
+      <c r="A220" s="10">
         <v>929962</v>
       </c>
       <c r="B220" s="6"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="8">
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="9">
         <f>D220-C220</f>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="10"/>
+      <c r="H220" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="9">
+      <c r="A221" s="10">
         <v>937247</v>
       </c>
       <c r="B221" s="6"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="8">
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="9">
         <f>D221-C221</f>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-      <c r="H221" s="10"/>
+      <c r="H221" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="9">
+      <c r="A222" s="10">
         <v>937250</v>
       </c>
       <c r="B222" s="6"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="8">
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="9">
         <f>D222-C222</f>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-      <c r="H222" s="10"/>
+      <c r="H222" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="9">
+      <c r="A223" s="10">
         <v>937826</v>
       </c>
       <c r="B223" s="6"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="8">
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="9">
         <f>D223-C223</f>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
-      <c r="H223" s="10"/>
+      <c r="H223" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="9">
+      <c r="A224" s="10">
         <v>938261</v>
       </c>
       <c r="B224" s="6"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="8">
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="9">
         <f>D224-C224</f>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
-      <c r="H224" s="10"/>
+      <c r="H224" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="9">
+      <c r="A225" s="10">
         <v>927475</v>
       </c>
       <c r="B225" s="6"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="8">
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="9">
         <f>D225-C225</f>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
-      <c r="H225" s="10"/>
+      <c r="H225" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="9">
+      <c r="A226" s="10">
         <v>932383</v>
       </c>
       <c r="B226" s="6"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="8">
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="9">
         <f>D226-C226</f>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
-      <c r="H226" s="10"/>
+      <c r="H226" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="9">
+      <c r="A227" s="10">
         <v>932417</v>
       </c>
       <c r="B227" s="6"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="8">
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="9">
         <f>D227-C227</f>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
-      <c r="H227" s="10"/>
+      <c r="H227" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="9">
+      <c r="A228" s="10">
         <v>925842</v>
       </c>
       <c r="B228" s="6"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="8">
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="9">
         <f>D228-C228</f>
       </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
-      <c r="H228" s="10"/>
+      <c r="H228" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="9">
+      <c r="A229" s="10">
         <v>928620</v>
       </c>
       <c r="B229" s="6"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="8">
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="9">
         <f>D229-C229</f>
       </c>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
-      <c r="H229" s="10"/>
+      <c r="H229" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="9">
+      <c r="A230" s="10">
         <v>939982</v>
       </c>
       <c r="B230" s="6"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="8">
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="9">
         <f>D230-C230</f>
       </c>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
-      <c r="H230" s="10"/>
+      <c r="H230" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="9">
+      <c r="A231" s="10">
         <v>931444</v>
       </c>
       <c r="B231" s="6"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="8">
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="9">
         <f>D231-C231</f>
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
-      <c r="H231" s="10"/>
+      <c r="H231" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="9">
+      <c r="A232" s="10">
         <v>929954</v>
       </c>
       <c r="B232" s="6"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="8">
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="9">
         <f>D232-C232</f>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
-      <c r="H232" s="10"/>
+      <c r="H232" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="9">
+      <c r="A233" s="10">
         <v>932368</v>
       </c>
       <c r="B233" s="6"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="8">
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="9">
         <f>D233-C233</f>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
-      <c r="H233" s="10"/>
+      <c r="H233" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="9">
+      <c r="A234" s="10">
         <v>937163</v>
       </c>
       <c r="B234" s="6"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="8">
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="9">
         <f>D234-C234</f>
       </c>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
-      <c r="H234" s="10"/>
+      <c r="H234" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="9">
+      <c r="A235" s="10">
         <v>928352</v>
       </c>
       <c r="B235" s="6"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="8">
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="9">
         <f>D235-C235</f>
       </c>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
-      <c r="H235" s="10"/>
+      <c r="H235" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="9">
+      <c r="A236" s="10">
         <v>928857</v>
       </c>
       <c r="B236" s="6"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="8">
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="9">
         <f>D236-C236</f>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
-      <c r="H236" s="10"/>
+      <c r="H236" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="9">
+      <c r="A237" s="10">
         <v>930114</v>
       </c>
       <c r="B237" s="6"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="8">
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="9">
         <f>D237-C237</f>
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
-      <c r="H237" s="10"/>
+      <c r="H237" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="9">
+      <c r="A238" s="10">
         <v>932395</v>
       </c>
       <c r="B238" s="6"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="8">
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="9">
         <f>D238-C238</f>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
-      <c r="H238" s="10"/>
+      <c r="H238" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
-      <c r="A239" s="9">
+      <c r="A239" s="10">
         <v>937062</v>
       </c>
       <c r="B239" s="6"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="8">
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="9">
         <f>D239-C239</f>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
-      <c r="H239" s="10"/>
+      <c r="H239" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="9">
+      <c r="A240" s="10">
         <v>937344</v>
       </c>
       <c r="B240" s="6"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="8">
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="9">
         <f>D240-C240</f>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
-      <c r="H240" s="10"/>
+      <c r="H240" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="9">
+      <c r="A241" s="10">
         <v>938310</v>
       </c>
       <c r="B241" s="6"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="8">
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="9">
         <f>D241-C241</f>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="10"/>
+      <c r="H241" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="9">
+      <c r="A242" s="10">
         <v>938750</v>
       </c>
       <c r="B242" s="6"/>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="8">
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="9">
         <f>D242-C242</f>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="10"/>
+      <c r="H242" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="9">
+      <c r="A243" s="10">
         <v>934992</v>
       </c>
       <c r="B243" s="6"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="8">
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="9">
         <f>D243-C243</f>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
-      <c r="H243" s="10"/>
+      <c r="H243" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="9">
+      <c r="A244" s="10">
         <v>928031</v>
       </c>
       <c r="B244" s="6"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="8">
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="9">
         <f>D244-C244</f>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
-      <c r="H244" s="10"/>
+      <c r="H244" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="9">
+      <c r="A245" s="10">
         <v>937853</v>
       </c>
       <c r="B245" s="6"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="8">
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="9">
         <f>D245-C245</f>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
-      <c r="H245" s="10"/>
+      <c r="H245" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="9">
+      <c r="A246" s="10">
         <v>938464</v>
       </c>
       <c r="B246" s="6"/>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="8">
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="9">
         <f>D246-C246</f>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
-      <c r="H246" s="10"/>
+      <c r="H246" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="9">
+      <c r="A247" s="10">
         <v>937057</v>
       </c>
       <c r="B247" s="6"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="8">
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="9">
         <f>D247-C247</f>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
-      <c r="H247" s="10"/>
+      <c r="H247" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="9">
+      <c r="A248" s="10">
         <v>937100</v>
       </c>
       <c r="B248" s="6"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="8">
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="9">
         <f>D248-C248</f>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
-      <c r="H248" s="10"/>
+      <c r="H248" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="9">
+      <c r="A249" s="10">
         <v>937252</v>
       </c>
       <c r="B249" s="6"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="8">
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="9">
         <f>D249-C249</f>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
-      <c r="H249" s="10"/>
+      <c r="H249" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="9">
+      <c r="A250" s="10">
         <v>938271</v>
       </c>
       <c r="B250" s="6"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="8">
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="9">
         <f>D250-C250</f>
       </c>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
-      <c r="H250" s="10"/>
+      <c r="H250" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="9">
+      <c r="A251" s="10">
         <v>938281</v>
       </c>
       <c r="B251" s="6"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="8">
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="9">
         <f>D251-C251</f>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
-      <c r="H251" s="10"/>
+      <c r="H251" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="9">
+      <c r="A252" s="10">
         <v>938322</v>
       </c>
       <c r="B252" s="6"/>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="8">
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="9">
         <f>D252-C252</f>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
-      <c r="H252" s="10"/>
+      <c r="H252" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="9">
+      <c r="A253" s="10">
         <v>938459</v>
       </c>
       <c r="B253" s="6"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="8">
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="9">
         <f>D253-C253</f>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
-      <c r="H253" s="10"/>
+      <c r="H253" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="9">
+      <c r="A254" s="10">
         <v>937436</v>
       </c>
       <c r="B254" s="6"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="8">
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="9">
         <f>D254-C254</f>
       </c>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
-      <c r="H254" s="10"/>
+      <c r="H254" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="9">
+      <c r="A255" s="10">
         <v>916363</v>
       </c>
       <c r="B255" s="6"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="8">
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="9">
         <f>D255-C255</f>
       </c>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
-      <c r="H255" s="10"/>
+      <c r="H255" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="9">
+      <c r="A256" s="10">
         <v>927485</v>
       </c>
       <c r="B256" s="6"/>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="8">
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="9">
         <f>D256-C256</f>
       </c>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
-      <c r="H256" s="10"/>
+      <c r="H256" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="9">
+      <c r="A257" s="10">
         <v>928109</v>
       </c>
       <c r="B257" s="6"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="8">
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="9">
         <f>D257-C257</f>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
-      <c r="H257" s="10"/>
+      <c r="H257" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="9">
+      <c r="A258" s="10">
         <v>931177</v>
       </c>
       <c r="B258" s="6"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="8">
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="9">
         <f>D258-C258</f>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="10"/>
+      <c r="H258" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="9">
+      <c r="A259" s="10">
         <v>932012</v>
       </c>
       <c r="B259" s="6"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="8">
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="9">
         <f>D259-C259</f>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="10"/>
+      <c r="H259" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="9">
+      <c r="A260" s="10">
         <v>937164</v>
       </c>
       <c r="B260" s="6"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="8">
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="9">
         <f>D260-C260</f>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
-      <c r="H260" s="10"/>
+      <c r="H260" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="9">
+      <c r="A261" s="10">
         <v>937681</v>
       </c>
       <c r="B261" s="6"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="8">
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="9">
         <f>D261-C261</f>
       </c>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
-      <c r="H261" s="10"/>
+      <c r="H261" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="9">
+      <c r="A262" s="10">
         <v>940499</v>
       </c>
       <c r="B262" s="6"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="8">
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="9">
         <f>D262-C262</f>
       </c>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
-      <c r="H262" s="10"/>
+      <c r="H262" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="9">
+      <c r="A263" s="10">
         <v>940601</v>
       </c>
       <c r="B263" s="6"/>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="8">
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="9">
         <f>D263-C263</f>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
-      <c r="H263" s="10"/>
+      <c r="H263" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="9">
+      <c r="A264" s="10">
         <v>940858</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="8">
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="9">
         <f>D264-C264</f>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="10"/>
+      <c r="H264" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="9">
+      <c r="A265" s="10">
         <v>941028</v>
       </c>
       <c r="B265" s="6"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="8">
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="9">
         <f>D265-C265</f>
       </c>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
-      <c r="H265" s="10"/>
+      <c r="H265" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="9">
+      <c r="A266" s="10">
         <v>941053</v>
       </c>
       <c r="B266" s="6"/>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="8">
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="9">
         <f>D266-C266</f>
       </c>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
-      <c r="H266" s="10"/>
+      <c r="H266" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="9">
+      <c r="A267" s="10">
         <v>941083</v>
       </c>
       <c r="B267" s="6"/>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="8">
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="9">
         <f>D267-C267</f>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
-      <c r="H267" s="10"/>
+      <c r="H267" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="9">
+      <c r="A268" s="10">
         <v>941186</v>
       </c>
       <c r="B268" s="6"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="8">
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="9">
         <f>D268-C268</f>
       </c>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
-      <c r="H268" s="10"/>
+      <c r="H268" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="9">
+      <c r="A269" s="10">
         <v>941221</v>
       </c>
       <c r="B269" s="6"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="8">
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="9">
         <f>D269-C269</f>
       </c>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
-      <c r="H269" s="10"/>
+      <c r="H269" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="9">
+      <c r="A270" s="10">
         <v>941268</v>
       </c>
       <c r="B270" s="6"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
-      <c r="E270" s="8">
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="9">
         <f>D270-C270</f>
       </c>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
-      <c r="H270" s="10"/>
+      <c r="H270" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="9">
+      <c r="A271" s="10">
         <v>941400</v>
       </c>
       <c r="B271" s="6"/>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10"/>
-      <c r="E271" s="8">
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="9">
         <f>D271-C271</f>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
-      <c r="H271" s="10"/>
+      <c r="H271" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="9">
+      <c r="A272" s="10">
         <v>941406</v>
       </c>
       <c r="B272" s="6"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="8">
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="9">
         <f>D272-C272</f>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
-      <c r="H272" s="10"/>
+      <c r="H272" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="9">
+      <c r="A273" s="10">
         <v>941425</v>
       </c>
       <c r="B273" s="6"/>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="8">
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="9">
         <f>D273-C273</f>
       </c>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
-      <c r="H273" s="10"/>
+      <c r="H273" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="9">
+      <c r="A274" s="10">
         <v>941432</v>
       </c>
       <c r="B274" s="6"/>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10"/>
-      <c r="E274" s="8">
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="9">
         <f>D274-C274</f>
       </c>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
-      <c r="H274" s="10"/>
+      <c r="H274" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="9">
+      <c r="A275" s="10">
         <v>941793</v>
       </c>
       <c r="B275" s="6"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="8">
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="9">
         <f>D275-C275</f>
       </c>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
-      <c r="H275" s="10"/>
+      <c r="H275" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="9">
+      <c r="A276" s="10">
         <v>941956</v>
       </c>
       <c r="B276" s="6"/>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10"/>
-      <c r="E276" s="8">
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="9">
         <f>D276-C276</f>
       </c>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
-      <c r="H276" s="10"/>
+      <c r="H276" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="9">
+      <c r="A277" s="10">
         <v>941962</v>
       </c>
       <c r="B277" s="6"/>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="8">
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="9">
         <f>D277-C277</f>
       </c>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
-      <c r="H277" s="10"/>
+      <c r="H277" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="9">
+      <c r="A278" s="10">
         <v>941967</v>
       </c>
       <c r="B278" s="6"/>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="8">
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="9">
         <f>D278-C278</f>
       </c>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
-      <c r="H278" s="10"/>
+      <c r="H278" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="9">
+      <c r="A279" s="10">
         <v>941988</v>
       </c>
       <c r="B279" s="6"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="8">
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="9">
         <f>D279-C279</f>
       </c>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
-      <c r="H279" s="10"/>
+      <c r="H279" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="9">
+      <c r="A280" s="10">
         <v>942374</v>
       </c>
       <c r="B280" s="6"/>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="8">
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="9">
         <f>D280-C280</f>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
-      <c r="H280" s="10"/>
+      <c r="H280" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="9">
+      <c r="A281" s="10">
         <v>942403</v>
       </c>
       <c r="B281" s="6"/>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="8">
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="9">
         <f>D281-C281</f>
       </c>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
-      <c r="H281" s="10"/>
+      <c r="H281" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="9">
+      <c r="A282" s="10">
         <v>942439</v>
       </c>
       <c r="B282" s="6"/>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10"/>
-      <c r="E282" s="8">
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="9">
         <f>D282-C282</f>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
-      <c r="H282" s="10"/>
+      <c r="H282" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="9">
+      <c r="A283" s="10">
         <v>942472</v>
       </c>
       <c r="B283" s="6"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="8">
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="9">
         <f>D283-C283</f>
       </c>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
-      <c r="H283" s="10"/>
+      <c r="H283" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="9">
+      <c r="A284" s="10">
         <v>940480</v>
       </c>
       <c r="B284" s="6"/>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10"/>
-      <c r="E284" s="8">
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="9">
         <f>D284-C284</f>
       </c>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
-      <c r="H284" s="10"/>
+      <c r="H284" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="9">
+      <c r="A285" s="10">
         <v>941279</v>
       </c>
       <c r="B285" s="6"/>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="8">
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="9">
         <f>D285-C285</f>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
-      <c r="H285" s="10"/>
+      <c r="H285" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="9">
+      <c r="A286" s="10">
         <v>941498</v>
       </c>
       <c r="B286" s="6"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="8">
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="9">
         <f>D286-C286</f>
       </c>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
-      <c r="H286" s="10"/>
+      <c r="H286" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="9">
+      <c r="A287" s="10">
         <v>942277</v>
       </c>
       <c r="B287" s="6"/>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10"/>
-      <c r="E287" s="8">
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="9">
         <f>D287-C287</f>
       </c>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
-      <c r="H287" s="10"/>
+      <c r="H287" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="9">
+      <c r="A288" s="10">
         <v>941299</v>
       </c>
       <c r="B288" s="6"/>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10"/>
-      <c r="E288" s="8">
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="9">
         <f>D288-C288</f>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
-      <c r="H288" s="10"/>
+      <c r="H288" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="9">
+      <c r="A289" s="10">
         <v>941219</v>
       </c>
       <c r="B289" s="6"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="8">
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="9">
         <f>D289-C289</f>
       </c>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
-      <c r="H289" s="10"/>
+      <c r="H289" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="9">
+      <c r="A290" s="10">
         <v>941991</v>
       </c>
       <c r="B290" s="6"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="8">
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="9">
         <f>D290-C290</f>
       </c>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
-      <c r="H290" s="10"/>
+      <c r="H290" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="9">
+      <c r="A291" s="10">
         <v>940503</v>
       </c>
       <c r="B291" s="6"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="8">
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="9">
         <f>D291-C291</f>
       </c>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
-      <c r="H291" s="10"/>
+      <c r="H291" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="9">
+      <c r="A292" s="10">
         <v>940971</v>
       </c>
       <c r="B292" s="6"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="8">
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="9">
         <f>D292-C292</f>
       </c>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
-      <c r="H292" s="10"/>
+      <c r="H292" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
-      <c r="A293" s="9">
+      <c r="A293" s="10">
         <v>942230</v>
       </c>
       <c r="B293" s="6"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="8">
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="9">
         <f>D293-C293</f>
       </c>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
-      <c r="H293" s="10"/>
+      <c r="H293" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
-      <c r="A294" s="9">
+      <c r="A294" s="10">
         <v>940976</v>
       </c>
       <c r="B294" s="6"/>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="8">
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="9">
         <f>D294-C294</f>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
-      <c r="H294" s="10"/>
+      <c r="H294" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="9">
+      <c r="A295" s="10">
         <v>941784</v>
       </c>
       <c r="B295" s="6"/>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="8">
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="9">
         <f>D295-C295</f>
       </c>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
-      <c r="H295" s="10"/>
+      <c r="H295" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="9">
+      <c r="A296" s="10">
         <v>941993</v>
       </c>
       <c r="B296" s="6"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="8">
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="9">
         <f>D296-C296</f>
       </c>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
-      <c r="H296" s="10"/>
+      <c r="H296" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="9">
+      <c r="A297" s="10">
         <v>941287</v>
       </c>
       <c r="B297" s="6"/>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="8">
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="9">
         <f>D297-C297</f>
       </c>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
-      <c r="H297" s="10"/>
+      <c r="H297" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="9">
+      <c r="A298" s="10">
         <v>941289</v>
       </c>
       <c r="B298" s="6"/>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="8">
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="9">
         <f>D298-C298</f>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
-      <c r="H298" s="10"/>
+      <c r="H298" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="9">
+      <c r="A299" s="10">
         <v>941062</v>
       </c>
       <c r="B299" s="6"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="8">
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="9">
         <f>D299-C299</f>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
-      <c r="H299" s="10"/>
+      <c r="H299" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="9">
+      <c r="A300" s="10">
         <v>941185</v>
       </c>
       <c r="B300" s="6"/>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10"/>
-      <c r="E300" s="8">
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="9">
         <f>D300-C300</f>
       </c>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
-      <c r="H300" s="10"/>
+      <c r="H300" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="9">
+      <c r="A301" s="10">
         <v>941524</v>
       </c>
       <c r="B301" s="6"/>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="8">
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="9">
         <f>D301-C301</f>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
-      <c r="H301" s="10"/>
+      <c r="H301" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="9">
+      <c r="A302" s="10">
         <v>941224</v>
       </c>
       <c r="B302" s="6"/>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="8">
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="9">
         <f>D302-C302</f>
       </c>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
-      <c r="H302" s="10"/>
+      <c r="H302" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="9">
+      <c r="A303" s="10">
         <v>941497</v>
       </c>
       <c r="B303" s="6"/>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="8">
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="9">
         <f>D303-C303</f>
       </c>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
-      <c r="H303" s="10"/>
+      <c r="H303" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="9">
+      <c r="A304" s="10">
         <v>941957</v>
       </c>
       <c r="B304" s="6"/>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="8">
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="9">
         <f>D304-C304</f>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
-      <c r="H304" s="10"/>
+      <c r="H304" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="9">
+      <c r="A305" s="10">
         <v>944342</v>
       </c>
       <c r="B305" s="6"/>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="8">
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="9">
         <f>D305-C305</f>
       </c>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
-      <c r="H305" s="10"/>
+      <c r="H305" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
-      <c r="A306" s="9">
+      <c r="A306" s="10">
         <v>944505</v>
       </c>
       <c r="B306" s="6"/>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10"/>
-      <c r="E306" s="8">
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="9">
         <f>D306-C306</f>
       </c>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
-      <c r="H306" s="10"/>
+      <c r="H306" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
-      <c r="A307" s="9">
+      <c r="A307" s="10">
         <v>944578</v>
       </c>
       <c r="B307" s="6"/>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="8">
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="9">
         <f>D307-C307</f>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
-      <c r="H307" s="10"/>
+      <c r="H307" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
-      <c r="A308" s="9">
+      <c r="A308" s="10">
         <v>945503</v>
       </c>
       <c r="B308" s="6"/>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="8">
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="9">
         <f>D308-C308</f>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
-      <c r="H308" s="10"/>
+      <c r="H308" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="9">
+      <c r="A309" s="10">
         <v>949049</v>
       </c>
       <c r="B309" s="6"/>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10"/>
-      <c r="E309" s="8">
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="9">
         <f>D309-C309</f>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
-      <c r="H309" s="10"/>
+      <c r="H309" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="9">
+      <c r="A310" s="10">
         <v>942816</v>
       </c>
       <c r="B310" s="6"/>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10"/>
-      <c r="E310" s="8">
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="9">
         <f>D310-C310</f>
       </c>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
-      <c r="H310" s="10"/>
+      <c r="H310" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="9">
+      <c r="A311" s="10">
         <v>944463</v>
       </c>
       <c r="B311" s="6"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10"/>
-      <c r="E311" s="8">
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="9">
         <f>D311-C311</f>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
-      <c r="H311" s="10"/>
+      <c r="H311" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="9">
+      <c r="A312" s="10">
         <v>944923</v>
       </c>
       <c r="B312" s="6"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="10"/>
-      <c r="E312" s="8">
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="9">
         <f>D312-C312</f>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
-      <c r="H312" s="10"/>
+      <c r="H312" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="9">
+      <c r="A313" s="10">
         <v>945505</v>
       </c>
       <c r="B313" s="6"/>
-      <c r="C313" s="10"/>
-      <c r="D313" s="10"/>
-      <c r="E313" s="8">
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="9">
         <f>D313-C313</f>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
-      <c r="H313" s="10"/>
+      <c r="H313" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="9">
+      <c r="A314" s="10">
         <v>947806</v>
       </c>
       <c r="B314" s="6"/>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="8">
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="9">
         <f>D314-C314</f>
       </c>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
-      <c r="H314" s="10"/>
+      <c r="H314" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="9">
+      <c r="A315" s="10">
         <v>949020</v>
       </c>
       <c r="B315" s="6"/>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="8">
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="9">
         <f>D315-C315</f>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
-      <c r="H315" s="10"/>
+      <c r="H315" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="9">
+      <c r="A316" s="10">
         <v>949660</v>
       </c>
       <c r="B316" s="6"/>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="8">
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="9">
         <f>D316-C316</f>
       </c>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
-      <c r="H316" s="10"/>
+      <c r="H316" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="9">
+      <c r="A317" s="10">
         <v>949717</v>
       </c>
       <c r="B317" s="6"/>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="8">
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="9">
         <f>D317-C317</f>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
-      <c r="H317" s="10"/>
+      <c r="H317" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="9">
+      <c r="A318" s="10">
         <v>949806</v>
       </c>
       <c r="B318" s="6"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="8">
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="9">
         <f>D318-C318</f>
       </c>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
-      <c r="H318" s="10"/>
+      <c r="H318" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="9">
+      <c r="A319" s="10">
         <v>950205</v>
       </c>
       <c r="B319" s="6"/>
-      <c r="C319" s="10"/>
-      <c r="D319" s="10"/>
-      <c r="E319" s="8">
+      <c r="C319" s="11"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="9">
         <f>D319-C319</f>
       </c>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
-      <c r="H319" s="10"/>
+      <c r="H319" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="9">
+      <c r="A320" s="10">
         <v>950223</v>
       </c>
       <c r="B320" s="6"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="8">
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="9">
         <f>D320-C320</f>
       </c>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
-      <c r="H320" s="10"/>
+      <c r="H320" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="9">
+      <c r="A321" s="10">
         <v>950224</v>
       </c>
       <c r="B321" s="6"/>
-      <c r="C321" s="10"/>
-      <c r="D321" s="10"/>
-      <c r="E321" s="8">
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="9">
         <f>D321-C321</f>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
-      <c r="H321" s="10"/>
+      <c r="H321" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="9">
+      <c r="A322" s="10">
         <v>950226</v>
       </c>
       <c r="B322" s="6"/>
-      <c r="C322" s="10"/>
-      <c r="D322" s="10"/>
-      <c r="E322" s="8">
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="9">
         <f>D322-C322</f>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
-      <c r="H322" s="10"/>
+      <c r="H322" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="9">
+      <c r="A323" s="10">
         <v>950227</v>
       </c>
       <c r="B323" s="6"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="10"/>
-      <c r="E323" s="8">
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="9">
         <f>D323-C323</f>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
-      <c r="H323" s="10"/>
+      <c r="H323" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="9">
+      <c r="A324" s="10">
         <v>950250</v>
       </c>
       <c r="B324" s="6"/>
-      <c r="C324" s="10"/>
-      <c r="D324" s="10"/>
-      <c r="E324" s="8">
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="9">
         <f>D324-C324</f>
       </c>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
-      <c r="H324" s="10"/>
+      <c r="H324" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="9">
+      <c r="A325" s="10">
         <v>943164</v>
       </c>
       <c r="B325" s="6"/>
-      <c r="C325" s="10"/>
-      <c r="D325" s="10"/>
-      <c r="E325" s="8">
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="9">
         <f>D325-C325</f>
       </c>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
-      <c r="H325" s="10"/>
+      <c r="H325" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="9">
+      <c r="A326" s="10">
         <v>942843</v>
       </c>
       <c r="B326" s="6"/>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="8">
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="9">
         <f>D326-C326</f>
       </c>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
-      <c r="H326" s="10"/>
+      <c r="H326" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
-      <c r="A327" s="9">
+      <c r="A327" s="10">
         <v>942844</v>
       </c>
       <c r="B327" s="6"/>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="8">
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="9">
         <f>D327-C327</f>
       </c>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
-      <c r="H327" s="10"/>
+      <c r="H327" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
-      <c r="A328" s="9">
+      <c r="A328" s="10">
         <v>945419</v>
       </c>
       <c r="B328" s="6"/>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="8">
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="9">
         <f>D328-C328</f>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
-      <c r="H328" s="10"/>
+      <c r="H328" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="9">
+      <c r="A329" s="10">
         <v>950617</v>
       </c>
       <c r="B329" s="6"/>
-      <c r="C329" s="10"/>
-      <c r="D329" s="10"/>
-      <c r="E329" s="8">
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="9">
         <f>D329-C329</f>
       </c>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
-      <c r="H329" s="10"/>
+      <c r="H329" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="9">
+      <c r="A330" s="10">
         <v>950618</v>
       </c>
       <c r="B330" s="6"/>
-      <c r="C330" s="10"/>
-      <c r="D330" s="10"/>
-      <c r="E330" s="8">
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="9">
         <f>D330-C330</f>
       </c>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
-      <c r="H330" s="10"/>
+      <c r="H330" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="9">
+      <c r="A331" s="10">
         <v>951110</v>
       </c>
       <c r="B331" s="6"/>
-      <c r="C331" s="10"/>
-      <c r="D331" s="10"/>
-      <c r="E331" s="8">
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="9">
         <f>D331-C331</f>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
-      <c r="H331" s="10"/>
+      <c r="H331" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="9">
+      <c r="A332" s="10">
         <v>951612</v>
       </c>
       <c r="B332" s="6"/>
-      <c r="C332" s="10"/>
-      <c r="D332" s="10"/>
-      <c r="E332" s="8">
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="9">
         <f>D332-C332</f>
       </c>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
-      <c r="H332" s="10"/>
+      <c r="H332" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
-      <c r="A333" s="9">
+      <c r="A333" s="10">
         <v>951621</v>
       </c>
       <c r="B333" s="6"/>
-      <c r="C333" s="10"/>
-      <c r="D333" s="10"/>
-      <c r="E333" s="8">
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="9">
         <f>D333-C333</f>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
-      <c r="H333" s="10"/>
+      <c r="H333" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
-      <c r="A334" s="9">
+      <c r="A334" s="10">
         <v>951640</v>
       </c>
       <c r="B334" s="6"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10"/>
-      <c r="E334" s="8">
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="9">
         <f>D334-C334</f>
       </c>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
-      <c r="H334" s="10"/>
+      <c r="H334" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
-      <c r="A335" s="9">
+      <c r="A335" s="10">
         <v>951657</v>
       </c>
       <c r="B335" s="6"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="10"/>
-      <c r="E335" s="8">
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="9">
         <f>D335-C335</f>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
-      <c r="H335" s="10"/>
+      <c r="H335" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
-      <c r="A336" s="9">
+      <c r="A336" s="10">
         <v>951675</v>
       </c>
       <c r="B336" s="6"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="10"/>
-      <c r="E336" s="8">
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="9">
         <f>D336-C336</f>
       </c>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
-      <c r="H336" s="10"/>
+      <c r="H336" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
-      <c r="A337" s="9">
+      <c r="A337" s="10">
         <v>951809</v>
       </c>
       <c r="B337" s="6"/>
-      <c r="C337" s="10"/>
-      <c r="D337" s="10"/>
-      <c r="E337" s="8">
+      <c r="C337" s="11"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="9">
         <f>D337-C337</f>
       </c>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
-      <c r="H337" s="10"/>
+      <c r="H337" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
-      <c r="A338" s="9">
+      <c r="A338" s="10">
         <v>951989</v>
       </c>
       <c r="B338" s="6"/>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="8">
+      <c r="C338" s="11"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="9">
         <f>D338-C338</f>
       </c>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
-      <c r="H338" s="10"/>
+      <c r="H338" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
-      <c r="A339" s="9">
+      <c r="A339" s="10">
         <v>943083</v>
       </c>
       <c r="B339" s="6"/>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="8">
+      <c r="C339" s="11"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="9">
         <f>D339-C339</f>
       </c>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
-      <c r="H339" s="10"/>
+      <c r="H339" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
-      <c r="A340" s="9">
+      <c r="A340" s="10">
         <v>950034</v>
       </c>
       <c r="B340" s="6"/>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="8">
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="9">
         <f>D340-C340</f>
       </c>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
-      <c r="H340" s="10"/>
+      <c r="H340" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
-      <c r="A341" s="9">
+      <c r="A341" s="10">
         <v>950045</v>
       </c>
       <c r="B341" s="6"/>
-      <c r="C341" s="10"/>
-      <c r="D341" s="10"/>
-      <c r="E341" s="8">
+      <c r="C341" s="11"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="9">
         <f>D341-C341</f>
       </c>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
-      <c r="H341" s="10"/>
+      <c r="H341" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
-      <c r="A342" s="9">
+      <c r="A342" s="10">
         <v>950046</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="10"/>
-      <c r="D342" s="10"/>
-      <c r="E342" s="8">
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="9">
         <f>D342-C342</f>
       </c>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
-      <c r="H342" s="10"/>
+      <c r="H342" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
-      <c r="A343" s="9">
+      <c r="A343" s="10">
         <v>950047</v>
       </c>
       <c r="B343" s="6"/>
-      <c r="C343" s="10"/>
-      <c r="D343" s="10"/>
-      <c r="E343" s="8">
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="9">
         <f>D343-C343</f>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
-      <c r="H343" s="10"/>
+      <c r="H343" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
-      <c r="A344" s="9">
+      <c r="A344" s="10">
         <v>950063</v>
       </c>
       <c r="B344" s="6"/>
-      <c r="C344" s="10"/>
-      <c r="D344" s="10"/>
-      <c r="E344" s="8">
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="9">
         <f>D344-C344</f>
       </c>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
-      <c r="H344" s="10"/>
+      <c r="H344" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
-      <c r="A345" s="9">
+      <c r="A345" s="10">
         <v>951651</v>
       </c>
       <c r="B345" s="6"/>
-      <c r="C345" s="10"/>
-      <c r="D345" s="10"/>
-      <c r="E345" s="8">
+      <c r="C345" s="11"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="9">
         <f>D345-C345</f>
       </c>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
-      <c r="H345" s="10"/>
+      <c r="H345" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
-      <c r="A346" s="9">
+      <c r="A346" s="10">
         <v>951656</v>
       </c>
       <c r="B346" s="6"/>
-      <c r="C346" s="10"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="8">
+      <c r="C346" s="11"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="9">
         <f>D346-C346</f>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
-      <c r="H346" s="10"/>
+      <c r="H346" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
-      <c r="A347" s="9">
+      <c r="A347" s="10">
         <v>951659</v>
       </c>
       <c r="B347" s="6"/>
-      <c r="C347" s="10"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="8">
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="9">
         <f>D347-C347</f>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
-      <c r="H347" s="10"/>
+      <c r="H347" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
-      <c r="A348" s="9">
+      <c r="A348" s="10">
         <v>951660</v>
       </c>
       <c r="B348" s="6"/>
-      <c r="C348" s="10"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="8">
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="9">
         <f>D348-C348</f>
       </c>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
-      <c r="H348" s="10"/>
+      <c r="H348" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
-      <c r="A349" s="9">
+      <c r="A349" s="10">
         <v>951662</v>
       </c>
       <c r="B349" s="6"/>
-      <c r="C349" s="10"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="8">
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="9">
         <f>D349-C349</f>
       </c>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
-      <c r="H349" s="10"/>
+      <c r="H349" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
-      <c r="A350" s="9">
+      <c r="A350" s="10">
         <v>951673</v>
       </c>
       <c r="B350" s="6"/>
-      <c r="C350" s="10"/>
-      <c r="D350" s="10"/>
-      <c r="E350" s="8">
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="9">
         <f>D350-C350</f>
       </c>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
-      <c r="H350" s="10"/>
+      <c r="H350" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
-      <c r="A351" s="9">
+      <c r="A351" s="10">
         <v>951679</v>
       </c>
       <c r="B351" s="6"/>
-      <c r="C351" s="10"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="8">
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="9">
         <f>D351-C351</f>
       </c>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
-      <c r="H351" s="10"/>
+      <c r="H351" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
-      <c r="A352" s="9">
+      <c r="A352" s="10">
         <v>951682</v>
       </c>
       <c r="B352" s="6"/>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="8">
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
+      <c r="E352" s="9">
         <f>D352-C352</f>
       </c>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
-      <c r="H352" s="10"/>
+      <c r="H352" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
-      <c r="A353" s="9">
+      <c r="A353" s="10">
         <v>951683</v>
       </c>
       <c r="B353" s="6"/>
-      <c r="C353" s="10"/>
-      <c r="D353" s="10"/>
-      <c r="E353" s="8">
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="9">
         <f>D353-C353</f>
       </c>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
-      <c r="H353" s="10"/>
+      <c r="H353" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
-      <c r="A354" s="9">
+      <c r="A354" s="10">
         <v>951690</v>
       </c>
       <c r="B354" s="6"/>
-      <c r="C354" s="10"/>
-      <c r="D354" s="10"/>
-      <c r="E354" s="8">
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="9">
         <f>D354-C354</f>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
-      <c r="H354" s="10"/>
+      <c r="H354" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
-      <c r="A355" s="9">
+      <c r="A355" s="10">
         <v>951754</v>
       </c>
       <c r="B355" s="6"/>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10"/>
-      <c r="E355" s="8">
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="9">
         <f>D355-C355</f>
       </c>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
-      <c r="H355" s="10"/>
+      <c r="H355" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
-      <c r="A356" s="9">
+      <c r="A356" s="10">
         <v>951788</v>
       </c>
       <c r="B356" s="6"/>
-      <c r="C356" s="10"/>
-      <c r="D356" s="10"/>
-      <c r="E356" s="8">
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="9">
         <f>D356-C356</f>
       </c>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
-      <c r="H356" s="10"/>
+      <c r="H356" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
-      <c r="A357" s="9">
+      <c r="A357" s="10">
         <v>951802</v>
       </c>
       <c r="B357" s="6"/>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="8">
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="9">
         <f>D357-C357</f>
       </c>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
-      <c r="H357" s="10"/>
+      <c r="H357" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
-      <c r="A358" s="9">
+      <c r="A358" s="10">
         <v>951890</v>
       </c>
       <c r="B358" s="6"/>
-      <c r="C358" s="10"/>
-      <c r="D358" s="10"/>
-      <c r="E358" s="8">
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="9">
         <f>D358-C358</f>
       </c>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
-      <c r="H358" s="10"/>
+      <c r="H358" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
-      <c r="A359" s="9">
+      <c r="A359" s="10">
         <v>951917</v>
       </c>
       <c r="B359" s="6"/>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
-      <c r="E359" s="8">
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="9">
         <f>D359-C359</f>
       </c>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
-      <c r="H359" s="10"/>
+      <c r="H359" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
-      <c r="A360" s="9">
+      <c r="A360" s="10">
         <v>951794</v>
       </c>
       <c r="B360" s="6"/>
-      <c r="C360" s="10"/>
-      <c r="D360" s="10"/>
-      <c r="E360" s="8">
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="9">
         <f>D360-C360</f>
       </c>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
-      <c r="H360" s="10"/>
+      <c r="H360" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
-      <c r="A361" s="9">
+      <c r="A361" s="10">
         <v>954586</v>
       </c>
       <c r="B361" s="6"/>
-      <c r="C361" s="10"/>
-      <c r="D361" s="10"/>
-      <c r="E361" s="8">
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="9">
         <f>D361-C361</f>
       </c>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
-      <c r="H361" s="10"/>
+      <c r="H361" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
-      <c r="A362" s="9">
+      <c r="A362" s="10">
         <v>955750</v>
       </c>
       <c r="B362" s="6"/>
-      <c r="C362" s="10"/>
-      <c r="D362" s="10"/>
-      <c r="E362" s="8">
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="9">
         <f>D362-C362</f>
       </c>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
-      <c r="H362" s="10"/>
+      <c r="H362" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
-      <c r="A363" s="9">
+      <c r="A363" s="10">
         <v>956467</v>
       </c>
       <c r="B363" s="6"/>
-      <c r="C363" s="10"/>
-      <c r="D363" s="10"/>
-      <c r="E363" s="8">
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="9">
         <f>D363-C363</f>
       </c>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
-      <c r="H363" s="10"/>
+      <c r="H363" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
-      <c r="A364" s="9">
+      <c r="A364" s="10">
         <v>956472</v>
       </c>
       <c r="B364" s="6"/>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
-      <c r="E364" s="8">
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="9">
         <f>D364-C364</f>
       </c>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
-      <c r="H364" s="10"/>
+      <c r="H364" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
-      <c r="A365" s="9">
+      <c r="A365" s="10">
         <v>956474</v>
       </c>
       <c r="B365" s="6"/>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-      <c r="E365" s="8">
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="9">
         <f>D365-C365</f>
       </c>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
-      <c r="H365" s="10"/>
+      <c r="H365" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
-      <c r="A366" s="9">
+      <c r="A366" s="10">
         <v>956475</v>
       </c>
       <c r="B366" s="6"/>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="8">
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="9">
         <f>D366-C366</f>
       </c>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
-      <c r="H366" s="10"/>
+      <c r="H366" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
-      <c r="A367" s="9">
+      <c r="A367" s="10">
         <v>956853</v>
       </c>
       <c r="B367" s="6"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="8">
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="9">
         <f>D367-C367</f>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
-      <c r="H367" s="10"/>
+      <c r="H367" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
-      <c r="A368" s="9">
+      <c r="A368" s="10">
         <v>956866</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="8">
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="9">
         <f>D368-C368</f>
       </c>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
-      <c r="H368" s="10"/>
+      <c r="H368" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
-      <c r="A369" s="9">
+      <c r="A369" s="10">
         <v>958153</v>
       </c>
       <c r="B369" s="6"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="8">
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="9">
         <f>D369-C369</f>
       </c>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
-      <c r="H369" s="10"/>
+      <c r="H369" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
-      <c r="A370" s="9">
+      <c r="A370" s="10">
         <v>956469</v>
       </c>
       <c r="B370" s="6"/>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="8">
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="9">
         <f>D370-C370</f>
       </c>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
-      <c r="H370" s="10"/>
+      <c r="H370" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
-      <c r="A371" s="9">
+      <c r="A371" s="10">
         <v>956476</v>
       </c>
       <c r="B371" s="6"/>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="8">
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="9">
         <f>D371-C371</f>
       </c>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
-      <c r="H371" s="10"/>
+      <c r="H371" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
-      <c r="A372" s="9">
+      <c r="A372" s="10">
         <v>956863</v>
       </c>
       <c r="B372" s="6"/>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="8">
+      <c r="C372" s="11"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="9">
         <f>D372-C372</f>
       </c>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
-      <c r="H372" s="10"/>
+      <c r="H372" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
-      <c r="A373" s="9">
+      <c r="A373" s="10">
         <v>957194</v>
       </c>
       <c r="B373" s="6"/>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="8">
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="9">
         <f>D373-C373</f>
       </c>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
-      <c r="H373" s="10"/>
+      <c r="H373" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
-      <c r="A374" s="9">
+      <c r="A374" s="10">
         <v>958427</v>
       </c>
       <c r="B374" s="6"/>
-      <c r="C374" s="10"/>
-      <c r="D374" s="10"/>
-      <c r="E374" s="8">
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="9">
         <f>D374-C374</f>
       </c>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
-      <c r="H374" s="10"/>
+      <c r="H374" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
-      <c r="A375" s="9">
+      <c r="A375" s="10">
         <v>957801</v>
       </c>
       <c r="B375" s="6"/>
-      <c r="C375" s="10"/>
-      <c r="D375" s="10"/>
-      <c r="E375" s="8">
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="9">
         <f>D375-C375</f>
       </c>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
-      <c r="H375" s="10"/>
+      <c r="H375" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
-      <c r="A376" s="9">
+      <c r="A376" s="10">
         <v>957858</v>
       </c>
       <c r="B376" s="6"/>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="8">
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="9">
         <f>D376-C376</f>
       </c>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
-      <c r="H376" s="10"/>
+      <c r="H376" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
-      <c r="A377" s="9">
+      <c r="A377" s="10">
         <v>958149</v>
       </c>
       <c r="B377" s="6"/>
-      <c r="C377" s="10"/>
-      <c r="D377" s="10"/>
-      <c r="E377" s="8">
+      <c r="C377" s="11"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="9">
         <f>D377-C377</f>
       </c>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
-      <c r="H377" s="10"/>
+      <c r="H377" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
-      <c r="A378" s="9">
+      <c r="A378" s="10">
         <v>956852</v>
       </c>
       <c r="B378" s="6"/>
-      <c r="C378" s="10"/>
-      <c r="D378" s="10"/>
-      <c r="E378" s="8">
+      <c r="C378" s="11"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="9">
         <f>D378-C378</f>
       </c>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
-      <c r="H378" s="10"/>
+      <c r="H378" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
-      <c r="A379" s="9">
+      <c r="A379" s="10">
         <v>957196</v>
       </c>
       <c r="B379" s="6"/>
-      <c r="C379" s="10"/>
-      <c r="D379" s="10"/>
-      <c r="E379" s="8">
+      <c r="C379" s="11"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="9">
         <f>D379-C379</f>
       </c>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
-      <c r="H379" s="10"/>
+      <c r="H379" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
-      <c r="A380" s="9">
+      <c r="A380" s="10">
         <v>957802</v>
       </c>
       <c r="B380" s="6"/>
-      <c r="C380" s="10"/>
-      <c r="D380" s="10"/>
-      <c r="E380" s="8">
+      <c r="C380" s="11"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="9">
         <f>D380-C380</f>
       </c>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
-      <c r="H380" s="10"/>
+      <c r="H380" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
-      <c r="A381" s="9">
+      <c r="A381" s="10">
         <v>958243</v>
       </c>
       <c r="B381" s="6"/>
-      <c r="C381" s="10"/>
-      <c r="D381" s="10"/>
-      <c r="E381" s="8">
+      <c r="C381" s="11"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="9">
         <f>D381-C381</f>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
-      <c r="H381" s="10"/>
+      <c r="H381" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
-      <c r="A382" s="9">
+      <c r="A382" s="10">
         <v>958661</v>
       </c>
       <c r="B382" s="6"/>
-      <c r="C382" s="10"/>
-      <c r="D382" s="10"/>
-      <c r="E382" s="8">
+      <c r="C382" s="11"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="9">
         <f>D382-C382</f>
       </c>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
-      <c r="H382" s="10"/>
+      <c r="H382" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
-      <c r="A383" s="9">
+      <c r="A383" s="10">
         <v>956460</v>
       </c>
       <c r="B383" s="6"/>
-      <c r="C383" s="10"/>
-      <c r="D383" s="10"/>
-      <c r="E383" s="8">
+      <c r="C383" s="11"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="9">
         <f>D383-C383</f>
       </c>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
-      <c r="H383" s="10"/>
+      <c r="H383" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
-      <c r="A384" s="9">
+      <c r="A384" s="10">
         <v>957189</v>
       </c>
       <c r="B384" s="6"/>
-      <c r="C384" s="10"/>
-      <c r="D384" s="10"/>
-      <c r="E384" s="8">
+      <c r="C384" s="11"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="9">
         <f>D384-C384</f>
       </c>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
-      <c r="H384" s="10"/>
+      <c r="H384" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
-      <c r="A385" s="9">
+      <c r="A385" s="10">
         <v>957190</v>
       </c>
       <c r="B385" s="6"/>
-      <c r="C385" s="10"/>
-      <c r="D385" s="10"/>
-      <c r="E385" s="8">
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="9">
         <f>D385-C385</f>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
-      <c r="H385" s="10"/>
+      <c r="H385" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
-      <c r="A386" s="9">
+      <c r="A386" s="10">
         <v>957198</v>
       </c>
       <c r="B386" s="6"/>
-      <c r="C386" s="10"/>
-      <c r="D386" s="10"/>
-      <c r="E386" s="8">
+      <c r="C386" s="11"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="9">
         <f>D386-C386</f>
       </c>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
-      <c r="H386" s="10"/>
+      <c r="H386" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
-      <c r="A387" s="9">
+      <c r="A387" s="10">
         <v>958669</v>
       </c>
       <c r="B387" s="6"/>
-      <c r="C387" s="10"/>
-      <c r="D387" s="10"/>
-      <c r="E387" s="8">
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="9">
         <f>D387-C387</f>
       </c>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
-      <c r="H387" s="10"/>
+      <c r="H387" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
-      <c r="A388" s="9">
+      <c r="A388" s="10">
         <v>957796</v>
       </c>
       <c r="B388" s="6"/>
-      <c r="C388" s="10"/>
-      <c r="D388" s="10"/>
-      <c r="E388" s="8">
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="9">
         <f>D388-C388</f>
       </c>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
-      <c r="H388" s="10"/>
+      <c r="H388" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
-      <c r="A389" s="9">
+      <c r="A389" s="10">
         <v>957808</v>
       </c>
       <c r="B389" s="6"/>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="8">
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="9">
         <f>D389-C389</f>
       </c>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
-      <c r="H389" s="10"/>
+      <c r="H389" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
-      <c r="A390" s="9">
+      <c r="A390" s="10">
         <v>957859</v>
       </c>
       <c r="B390" s="6"/>
-      <c r="C390" s="10"/>
-      <c r="D390" s="10"/>
-      <c r="E390" s="8">
+      <c r="C390" s="11"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="9">
         <f>D390-C390</f>
       </c>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
-      <c r="H390" s="10"/>
+      <c r="H390" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
-      <c r="A391" s="9">
+      <c r="A391" s="10">
         <v>958265</v>
       </c>
       <c r="B391" s="6"/>
-      <c r="C391" s="10"/>
-      <c r="D391" s="10"/>
-      <c r="E391" s="8">
+      <c r="C391" s="11"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="9">
         <f>D391-C391</f>
       </c>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
-      <c r="H391" s="10"/>
+      <c r="H391" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
-      <c r="A392" s="9">
+      <c r="A392" s="10">
         <v>958670</v>
       </c>
       <c r="B392" s="6"/>
-      <c r="C392" s="10"/>
-      <c r="D392" s="10"/>
-      <c r="E392" s="8">
+      <c r="C392" s="11"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="9">
         <f>D392-C392</f>
       </c>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
-      <c r="H392" s="10"/>
+      <c r="H392" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
-      <c r="A393" s="9">
+      <c r="A393" s="10">
         <v>959667</v>
       </c>
       <c r="B393" s="6"/>
-      <c r="C393" s="10"/>
-      <c r="D393" s="10"/>
-      <c r="E393" s="8">
+      <c r="C393" s="11"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="9">
         <f>D393-C393</f>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
-      <c r="H393" s="10"/>
+      <c r="H393" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
-      <c r="A394" s="9">
+      <c r="A394" s="10">
         <v>958525</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="10"/>
-      <c r="D394" s="10"/>
-      <c r="E394" s="8">
+      <c r="C394" s="11"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="9">
         <f>D394-C394</f>
       </c>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
-      <c r="H394" s="10"/>
+      <c r="H394" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
-      <c r="A395" s="9">
+      <c r="A395" s="10">
         <v>959669</v>
       </c>
       <c r="B395" s="6"/>
-      <c r="C395" s="10"/>
-      <c r="D395" s="10"/>
-      <c r="E395" s="8">
+      <c r="C395" s="11"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="9">
         <f>D395-C395</f>
       </c>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
-      <c r="H395" s="10"/>
+      <c r="H395" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
-      <c r="A396" s="9">
+      <c r="A396" s="10">
         <v>960195</v>
       </c>
       <c r="B396" s="6"/>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="8">
+      <c r="C396" s="11"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="9">
         <f>D396-C396</f>
       </c>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
-      <c r="H396" s="10"/>
+      <c r="H396" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
-      <c r="A397" s="9">
+      <c r="A397" s="10">
         <v>956860</v>
       </c>
       <c r="B397" s="6"/>
-      <c r="C397" s="10"/>
-      <c r="D397" s="10"/>
-      <c r="E397" s="8">
+      <c r="C397" s="11"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="9">
         <f>D397-C397</f>
       </c>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
-      <c r="H397" s="10"/>
+      <c r="H397" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
-      <c r="A398" s="9">
+      <c r="A398" s="10">
         <v>957631</v>
       </c>
       <c r="B398" s="6"/>
-      <c r="C398" s="10"/>
-      <c r="D398" s="10"/>
-      <c r="E398" s="8">
+      <c r="C398" s="11"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="9">
         <f>D398-C398</f>
       </c>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
-      <c r="H398" s="10"/>
+      <c r="H398" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
